--- a/States.xlsx
+++ b/States.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MosaicApp\SPSZL-PLC-Zakladac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MosaicApp\SinZakladac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6E9EDE-5993-4999-9CB7-3DBF2048F90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3BD78D-010B-42A8-BAD3-DDB89E811801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{709BD55A-47C7-4636-ABF9-1DC0070A1EC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{709BD55A-47C7-4636-ABF9-1DC0070A1EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -562,7 +562,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,23 +977,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F6224A-1CDB-48A7-80D1-EF2060A227CB}">
-  <dimension ref="B1:P27"/>
+  <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="64.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" customWidth="1"/>
-    <col min="5" max="5" width="42.5546875" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="72.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
+    <col min="5" max="5" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
@@ -1008,26 +1008,20 @@
         <v>23</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>59</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="12">
         <v>-1</v>
       </c>
@@ -1036,18 +1030,18 @@
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14"/>
-      <c r="G3" s="35">
+      <c r="G3" s="34">
         <v>0</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18">
+      <c r="I3" s="16"/>
+      <c r="J3" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
         <v>0</v>
       </c>
@@ -1060,18 +1054,18 @@
       <c r="E4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="35">
         <v>1</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20">
+      <c r="I4" s="18"/>
+      <c r="J4" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>24</v>
       </c>
@@ -1082,18 +1076,18 @@
         <v>55</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="G5" s="36">
+      <c r="G5" s="35">
         <v>2</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20">
+      <c r="I5" s="18"/>
+      <c r="J5" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>2</v>
       </c>
@@ -1104,18 +1098,18 @@
         <v>56</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="G6" s="36">
+      <c r="G6" s="35">
         <v>3</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20">
+      <c r="I6" s="18"/>
+      <c r="J6" s="19">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>3</v>
       </c>
@@ -1126,18 +1120,18 @@
         <v>56</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="36">
+      <c r="G7" s="35">
         <v>4</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20">
+      <c r="I7" s="18"/>
+      <c r="J7" s="19">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>0</v>
       </c>
@@ -1150,18 +1144,18 @@
       <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <v>5</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20" t="s">
+      <c r="I8" s="18"/>
+      <c r="J8" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>1</v>
       </c>
@@ -1172,18 +1166,18 @@
         <v>55</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="G9" s="37">
+      <c r="G9" s="36">
         <v>15</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22" t="s">
+      <c r="I9" s="20"/>
+      <c r="J9" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>2</v>
       </c>
@@ -1194,18 +1188,18 @@
         <v>57</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="G10" s="38">
+      <c r="G10" s="37">
         <v>0</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>4</v>
       </c>
-      <c r="J10" s="24"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>3</v>
       </c>
@@ -1216,18 +1210,18 @@
         <v>57</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="G11" s="39">
+      <c r="G11" s="38">
         <v>1</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="24">
         <v>3</v>
       </c>
-      <c r="J11" s="26"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>4</v>
       </c>
@@ -1238,18 +1232,18 @@
         <v>57</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="G12" s="39">
+      <c r="G12" s="38">
         <v>2</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="24">
         <v>2</v>
       </c>
-      <c r="J12" s="26"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>5</v>
       </c>
@@ -1260,18 +1254,18 @@
         <v>55</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="G13" s="39">
+      <c r="G13" s="38">
         <v>3</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="24">
         <v>1</v>
       </c>
-      <c r="J13" s="26"/>
-    </row>
-    <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>6</v>
       </c>
@@ -1282,18 +1276,18 @@
         <v>55</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="G14" s="40">
+      <c r="G14" s="39">
         <v>15</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>7</v>
       </c>
@@ -1305,7 +1299,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>8</v>
       </c>
@@ -1317,7 +1311,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>9</v>
       </c>
@@ -1329,7 +1323,7 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>10</v>
       </c>
@@ -1339,7 +1333,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>11</v>
       </c>
@@ -1353,7 +1347,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>12</v>
       </c>
@@ -1365,7 +1359,7 @@
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>13</v>
       </c>
@@ -1379,7 +1373,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>14</v>
       </c>
@@ -1391,7 +1385,7 @@
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>15</v>
       </c>
@@ -1405,7 +1399,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>16</v>
       </c>
@@ -1417,7 +1411,7 @@
       </c>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>17</v>
       </c>
@@ -1429,7 +1423,7 @@
       </c>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>18</v>
       </c>
@@ -1441,7 +1435,7 @@
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
         <v>19</v>
       </c>

--- a/States.xlsx
+++ b/States.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MosaicApp\SinZakladac\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MosaicApp\SPSZL-PLC-Zakladac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3BD78D-010B-42A8-BAD3-DDB89E811801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FC7E30-C90D-4B08-AAA5-D2B75D1765E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{709BD55A-47C7-4636-ABF9-1DC0070A1EC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{709BD55A-47C7-4636-ABF9-1DC0070A1EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>4.0</t>
   </si>
@@ -237,6 +237,21 @@
   </si>
   <si>
     <t>HOME</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Dokování - Nastavení adresy na zero horizontálně</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Dokování - Přesun na zero horizontálně</t>
+  </si>
+  <si>
+    <t>Spuštění v případě automatického vypnutí</t>
   </si>
 </sst>
 </file>
@@ -261,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,8 +313,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -526,11 +547,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -541,7 +601,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,9 +611,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -642,6 +698,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -977,72 +1049,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F6224A-1CDB-48A7-80D1-EF2060A227CB}">
-  <dimension ref="B1:J27"/>
+  <dimension ref="B1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="72.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" customWidth="1"/>
-    <col min="5" max="5" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="72.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" customWidth="1"/>
+    <col min="5" max="5" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="12">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="10">
         <v>-1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="G3" s="34">
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="G3" s="32">
         <v>0</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17">
+      <c r="I3" s="14"/>
+      <c r="J3" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="9">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1054,19 +1126,19 @@
       <c r="E4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="33">
         <v>1</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19">
+      <c r="I4" s="16"/>
+      <c r="J4" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1076,19 +1148,19 @@
         <v>55</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="G5" s="35">
+      <c r="G5" s="33">
         <v>2</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19">
+      <c r="I5" s="16"/>
+      <c r="J5" s="17">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="9">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1098,19 +1170,19 @@
         <v>56</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="G6" s="35">
+      <c r="G6" s="33">
         <v>3</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19">
+      <c r="I6" s="16"/>
+      <c r="J6" s="17">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1120,19 +1192,19 @@
         <v>56</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="35">
+      <c r="G7" s="33">
         <v>4</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19">
+      <c r="I7" s="16"/>
+      <c r="J7" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1144,19 +1216,19 @@
       <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="33">
         <v>5</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19" t="s">
+      <c r="I8" s="16"/>
+      <c r="J8" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1166,19 +1238,19 @@
         <v>55</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="G9" s="36">
+      <c r="G9" s="34">
         <v>15</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1188,19 +1260,19 @@
         <v>57</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="G10" s="37">
+      <c r="G10" s="35">
         <v>0</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="20">
         <v>4</v>
       </c>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1210,19 +1282,19 @@
         <v>57</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="G11" s="38">
+      <c r="G11" s="36">
         <v>1</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="22">
         <v>3</v>
       </c>
-      <c r="J11" s="25"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1232,19 +1304,19 @@
         <v>57</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="G12" s="38">
+      <c r="G12" s="36">
         <v>2</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="22">
         <v>2</v>
       </c>
-      <c r="J12" s="25"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1254,19 +1326,19 @@
         <v>55</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="G13" s="38">
+      <c r="G13" s="36">
         <v>3</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="22">
         <v>1</v>
       </c>
-      <c r="J13" s="25"/>
-    </row>
-    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1276,19 +1348,19 @@
         <v>55</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="G14" s="39">
+      <c r="G14" s="37">
         <v>15</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="27"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1299,8 +1371,8 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1311,8 +1383,8 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1323,8 +1395,8 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1333,8 +1405,8 @@
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1347,8 +1419,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1359,8 +1431,8 @@
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1373,8 +1445,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1385,8 +1457,8 @@
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1399,8 +1471,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1411,8 +1483,8 @@
       </c>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1423,8 +1495,8 @@
       </c>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1435,17 +1507,45 @@
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="11" t="s">
+    <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="42"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
